--- a/DOWNLOADS/EDITAIS/U_160192_E_900022025_06-10-2025_10h00m/U_160192_E_900022025_06-10-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_160192_E_900022025_06-10-2025_10h00m/U_160192_E_900022025_06-10-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="114">
   <si>
     <t>Nº</t>
   </si>
@@ -338,165 +338,6 @@
   </si>
   <si>
     <t>Isolante Térmico Isolante Térmico Aspecto Físico: Pasta, Aplicação: Processador, Características Adicionais: Condutividade Térmica 11 W/Mk</t>
-  </si>
-  <si>
-    <t>Câmera de Conferência</t>
-  </si>
-  <si>
-    <t>Switch 48 Portas Gibabit / 4 x Porta SFP</t>
-  </si>
-  <si>
-    <t>Switch 8 Portas 10/100</t>
-  </si>
-  <si>
-    <t>Conversor de Fibra Óptica 10/100 /1000Mpbs com porta SFP</t>
-  </si>
-  <si>
-    <t>Patch Panel 48P</t>
-  </si>
-  <si>
-    <t>Rack 12U</t>
-  </si>
-  <si>
-    <t>Router Wi-fi</t>
-  </si>
-  <si>
-    <t>Fonte de Alimentação Ininterrupta / 3000VA</t>
-  </si>
-  <si>
-    <t>Fonte de Alimentação Ininterrupta / 600VA</t>
-  </si>
-  <si>
-    <t>Kit localizador e testador de cabos</t>
-  </si>
-  <si>
-    <t>Alicate de crimpar RJ45/ RJ11</t>
-  </si>
-  <si>
-    <t>Alicate de inserção</t>
-  </si>
-  <si>
-    <t>Cabo Cat 5e blindado 305m</t>
-  </si>
-  <si>
-    <t>Caixa Cabo cat 6 305m</t>
-  </si>
-  <si>
-    <t>Patch cord cat 6 (1,5m)</t>
-  </si>
-  <si>
-    <t>Patch cord cat 6 (3m)</t>
-  </si>
-  <si>
-    <t>Conector RJ45 Macho</t>
-  </si>
-  <si>
-    <t>HD Externo 4TB</t>
-  </si>
-  <si>
-    <t>HD SSD 240GB</t>
-  </si>
-  <si>
-    <t>Memória RAM DDR3 4GB</t>
-  </si>
-  <si>
-    <t>Memória RAM DDR4 8GB</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico VoIP</t>
-  </si>
-  <si>
-    <t>Teclado USB ABNT2</t>
-  </si>
-  <si>
-    <t>Mouse óptico USB</t>
-  </si>
-  <si>
-    <t>Caixa de Som para Desktop</t>
-  </si>
-  <si>
-    <t>Pen Drive 64GB</t>
-  </si>
-  <si>
-    <t>Placa de vídeo 1GB</t>
-  </si>
-  <si>
-    <t>Placa de rede PCI Express</t>
-  </si>
-  <si>
-    <t>Filtro de linha</t>
-  </si>
-  <si>
-    <t>Fonte ATX 500W</t>
-  </si>
-  <si>
-    <t>Fonte Universal Notebook</t>
-  </si>
-  <si>
-    <t>Cabo HDMI 3m</t>
-  </si>
-  <si>
-    <t>Cabo HDMI 10m</t>
-  </si>
-  <si>
-    <t>Cabo Displayport 3m</t>
-  </si>
-  <si>
-    <t>Cabo DVI 2m</t>
-  </si>
-  <si>
-    <t>Cabo VGA 1.5m</t>
-  </si>
-  <si>
-    <t>Cabo de Força MD9 1.5m</t>
-  </si>
-  <si>
-    <t>Adaptador DVI x VGA</t>
-  </si>
-  <si>
-    <t>Adaptador Displayport x VGA</t>
-  </si>
-  <si>
-    <t>Adaptador HDMI X VGA</t>
-  </si>
-  <si>
-    <t>Adaptador Tomada NEMA 5 (M) x NBR 14136 (F)</t>
-  </si>
-  <si>
-    <t>Adaptador Tomada NBR 14136 (M) x NEMA 5 (F)</t>
-  </si>
-  <si>
-    <t>Álcool Isopropílico</t>
-  </si>
-  <si>
-    <t>Bateria Cr2032 3v</t>
-  </si>
-  <si>
-    <t>Espiral tubo</t>
-  </si>
-  <si>
-    <t>Pasta térmica</t>
-  </si>
-  <si>
-    <t>Câmera de Conferência (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 1)</t>
-  </si>
-  <si>
-    <t>Switch 48 Portas Gibabit / 4 x Porta SFP (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 2)</t>
-  </si>
-  <si>
-    <t>Fonte de Alimentação Ininterrupta / 3000VA (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 8)</t>
-  </si>
-  <si>
-    <t>Caixa Cabo cat 6 305m (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 14)</t>
-  </si>
-  <si>
-    <t>HD Externo 4TB (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 18)</t>
-  </si>
-  <si>
-    <t>HD SSD 240GB (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 19)</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico VoIP (COTA RESERVADA PARA ME/EPP REFERENTE AO ITEM 22)</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -915,7 +756,7 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>56</v>
@@ -927,13 +768,13 @@
         <v>68973.52</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -944,7 +785,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>94</v>
@@ -956,13 +797,13 @@
         <v>246280</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -973,7 +814,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>117</v>
@@ -985,13 +826,13 @@
         <v>11938.68</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1002,7 +843,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>113</v>
@@ -1014,13 +855,13 @@
         <v>20856.41</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1031,7 +872,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>67</v>
@@ -1043,13 +884,13 @@
         <v>16380.16</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1060,7 +901,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>52</v>
@@ -1072,13 +913,13 @@
         <v>25769.64</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1089,7 +930,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>87</v>
@@ -1101,13 +942,13 @@
         <v>23947.62</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1118,7 +959,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>48</v>
@@ -1130,13 +971,13 @@
         <v>120396.48</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1147,7 +988,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>138</v>
@@ -1159,13 +1000,13 @@
         <v>48069.54</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1176,7 +1017,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>47</v>
@@ -1188,13 +1029,13 @@
         <v>7033.55</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1205,7 +1046,7 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>49</v>
@@ -1217,13 +1058,13 @@
         <v>1086.82</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1234,7 +1075,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>44</v>
@@ -1246,13 +1087,13 @@
         <v>1351.68</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1263,7 +1104,7 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>64</v>
@@ -1275,13 +1116,13 @@
         <v>59805.44</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1292,7 +1133,7 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>99</v>
@@ -1304,13 +1145,13 @@
         <v>84472.74000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1321,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>785</v>
@@ -1333,13 +1174,13 @@
         <v>12348.05</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1350,7 +1191,7 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>865</v>
@@ -1362,13 +1203,13 @@
         <v>11028.75</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1379,7 +1220,7 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <v>5290</v>
@@ -1391,13 +1232,13 @@
         <v>2327.6</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1408,7 +1249,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>139</v>
@@ -1420,13 +1261,13 @@
         <v>100866.74</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1437,7 +1278,7 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <v>954</v>
@@ -1449,13 +1290,13 @@
         <v>147755.52</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1466,7 +1307,7 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="D21">
         <v>465</v>
@@ -1478,13 +1319,13 @@
         <v>17205</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1495,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>454</v>
@@ -1507,13 +1348,13 @@
         <v>49086.48</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1524,7 +1365,7 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>259</v>
@@ -1536,13 +1377,13 @@
         <v>73278.87</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1553,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>493</v>
@@ -1565,13 +1406,13 @@
         <v>11575.64</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1582,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <v>737</v>
@@ -1594,13 +1435,13 @@
         <v>7989.08</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1611,7 +1452,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>272</v>
@@ -1623,13 +1464,13 @@
         <v>6375.68</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1640,7 +1481,7 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>443</v>
@@ -1652,13 +1493,13 @@
         <v>16391</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1669,7 +1510,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>280</v>
@@ -1681,13 +1522,13 @@
         <v>42000</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1698,7 +1539,7 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D29">
         <v>285</v>
@@ -1710,13 +1551,13 @@
         <v>13389.3</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1727,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>658</v>
@@ -1739,13 +1580,13 @@
         <v>36841.42</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1756,7 +1597,7 @@
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>445</v>
@@ -1768,13 +1609,13 @@
         <v>56012.15</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1785,7 +1626,7 @@
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>171</v>
@@ -1797,13 +1638,13 @@
         <v>7137.54</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1814,7 +1655,7 @@
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <v>240</v>
@@ -1826,13 +1667,13 @@
         <v>3888</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1843,7 +1684,7 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>217</v>
@@ -1855,13 +1696,13 @@
         <v>8441.299999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1872,7 +1713,7 @@
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D35">
         <v>246</v>
@@ -1884,13 +1725,13 @@
         <v>7134</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1901,7 +1742,7 @@
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>222</v>
@@ -1913,13 +1754,13 @@
         <v>6196.02</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1930,7 +1771,7 @@
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <v>305</v>
@@ -1942,13 +1783,13 @@
         <v>3568.5</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1959,7 +1800,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>600</v>
@@ -1971,13 +1812,13 @@
         <v>6642</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1988,7 +1829,7 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D39">
         <v>396</v>
@@ -2000,13 +1841,13 @@
         <v>6252.839999999999</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2017,7 +1858,7 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>456</v>
@@ -2029,13 +1870,13 @@
         <v>8285.52</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2046,7 +1887,7 @@
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D41">
         <v>436</v>
@@ -2058,13 +1899,13 @@
         <v>7202.72</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2075,7 +1916,7 @@
         <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>365</v>
@@ -2087,13 +1928,13 @@
         <v>2529.45</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2104,7 +1945,7 @@
         <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D43">
         <v>365</v>
@@ -2116,13 +1957,13 @@
         <v>2920</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2133,7 +1974,7 @@
         <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D44">
         <v>167</v>
@@ -2145,13 +1986,13 @@
         <v>5998.64</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2162,7 +2003,7 @@
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D45">
         <v>525</v>
@@ -2174,13 +2015,13 @@
         <v>2336.25</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2191,7 +2032,7 @@
         <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="D46">
         <v>598</v>
@@ -2203,13 +2044,13 @@
         <v>4754.1</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2220,7 +2061,7 @@
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>181</v>
@@ -2232,13 +2073,13 @@
         <v>2389.2</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="H47" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2249,7 +2090,7 @@
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2261,13 +2102,13 @@
         <v>2463.34</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2278,7 +2119,7 @@
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2290,13 +2131,13 @@
         <v>5240</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I49" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2307,7 +2148,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2319,13 +2160,13 @@
         <v>5016.52</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2336,7 +2177,7 @@
         <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2348,13 +2189,13 @@
         <v>1706.52</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2365,7 +2206,7 @@
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2377,13 +2218,13 @@
         <v>1451.32</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H52" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2394,7 +2235,7 @@
         <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -2406,13 +2247,13 @@
         <v>1239.04</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2423,7 +2264,7 @@
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -2435,13 +2276,13 @@
         <v>2263.44</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H54" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I54" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
